--- a/data/final_data/nomos_centers.xlsx
+++ b/data/final_data/nomos_centers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jgcha\Desktop\IronHack\hellas_db_mellon\data\final_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE0B0FAC-FF02-4A4D-AA9E-E4C2BAB75A41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E09E894-3555-47B5-BAC8-6EC9B1415551}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1425" yWindow="1425" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -584,7 +584,7 @@
   <dimension ref="A1:C52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -616,10 +616,10 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>39.705800000000004</v>
+        <v>38.691000000000003</v>
       </c>
       <c r="C3">
-        <v>21.289000000000001</v>
+        <v>21.4</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
